--- a/Week 9/Week 9 -DP.xlsx
+++ b/Week 9/Week 9 -DP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CCD48A-843A-44FA-8F5E-64C3941278BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3B0043-785E-4C5F-9C97-8AF73E39D9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
   <si>
     <t>Dynamic Programming - Basics</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/longest-palindrome-substring-set-1/</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>DONE</t>
@@ -189,9 +186,6 @@
     <t>https://leetcode.com/problems/ones-and-zeroes/</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/partition-equal-subset-sum/</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/longest-increasing-subsequence-dp-3/</t>
   </si>
   <si>
@@ -286,6 +280,12 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/mobile-numeric-keypad-problem/</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-ways-to-rearrange-sticks-with-k-sticks-visible/</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -435,6 +435,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -655,10 +658,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N1012"/>
+  <dimension ref="A1:N1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -668,435 +671,498 @@
     <col min="7" max="7" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="B8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+      <c r="B25" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="B26" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="B27" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="B28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="B29" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="B30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="B31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="B32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+      <c r="B33" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+      <c r="B34" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="B35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="B36" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="B37" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="B38" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="B39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="B41" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="B42" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+      <c r="B43" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+    <row r="45" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+    <row r="47" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11" t="s">
+    <row r="48" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
+    <row r="52" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
+      <c r="A69" s="1"/>
     </row>
     <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
@@ -1105,7 +1171,7 @@
       <c r="A71" s="1"/>
     </row>
     <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
+      <c r="A72" s="2"/>
     </row>
     <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
@@ -1214,6 +1280,9 @@
     </row>
     <row r="108" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
+      <c r="E108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="N108" s="3"/>
     </row>
     <row r="109" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
@@ -6632,12 +6701,6 @@
       <c r="E1011" s="3"/>
       <c r="I1011" s="3"/>
       <c r="N1011" s="3"/>
-    </row>
-    <row r="1012" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1012" s="2"/>
-      <c r="E1012" s="3"/>
-      <c r="I1012" s="3"/>
-      <c r="N1012" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6669,43 +6732,43 @@
     <hyperlink ref="A28" r:id="rId26" xr:uid="{D35F7ACB-267A-47D0-9AAD-4B81A53450A7}"/>
     <hyperlink ref="A29" r:id="rId27" xr:uid="{51306CF6-6A87-4815-B3C4-9802EB8D82D1}"/>
     <hyperlink ref="A31" r:id="rId28" xr:uid="{0559119A-29DC-4B6A-9CEC-2F3A81E72C33}"/>
-    <hyperlink ref="A32" r:id="rId29" xr:uid="{D7BA93FE-2E38-432F-B2D8-B42AC9A3ACA0}"/>
-    <hyperlink ref="A33" r:id="rId30" xr:uid="{141E1017-43D3-44F2-ADD1-BBD55BCEFC5D}"/>
-    <hyperlink ref="A34" r:id="rId31" xr:uid="{1F2B5872-6965-4156-8012-38B854DEE7CC}"/>
-    <hyperlink ref="A35" r:id="rId32" xr:uid="{080D4ECA-1325-4907-93DB-9267F0549733}"/>
-    <hyperlink ref="A36" r:id="rId33" xr:uid="{F0F8210D-2230-4E17-88DA-D69D9AE5AB8D}"/>
-    <hyperlink ref="A37" r:id="rId34" xr:uid="{CEEDA946-65C6-4F82-9600-73DE62546A2D}"/>
-    <hyperlink ref="A38" r:id="rId35" xr:uid="{A53A7020-5C3F-4513-99B6-7A91AC579569}"/>
-    <hyperlink ref="A39" r:id="rId36" display="https://www.geeksforgeeks.org/construction-of-longest-increasing-subsequence-using-dynamic-programming/" xr:uid="{0AB1C0FB-4BE9-43BF-BB04-8468B0434FBD}"/>
-    <hyperlink ref="A40" r:id="rId37" xr:uid="{AC98C6C3-6844-4F67-BB45-C3120757BFF1}"/>
-    <hyperlink ref="A41" r:id="rId38" xr:uid="{1969731A-51A2-4E1D-ACE3-CD6DB53C39EA}"/>
-    <hyperlink ref="A42" r:id="rId39" xr:uid="{275DD09B-2148-45EB-8F0D-7B874445819B}"/>
-    <hyperlink ref="A43" r:id="rId40" xr:uid="{B60BB0CE-090A-4F3B-AFD9-C637F572E7D5}"/>
-    <hyperlink ref="A44" r:id="rId41" xr:uid="{772EDCDF-FBA6-4E5D-9101-A1A770D018EC}"/>
-    <hyperlink ref="A45" r:id="rId42" xr:uid="{1A89640B-1129-4D2B-8B77-961DD28D8D10}"/>
-    <hyperlink ref="A46" r:id="rId43" xr:uid="{4A86D7B4-2127-4189-AED4-352CF8993EDD}"/>
-    <hyperlink ref="A47" r:id="rId44" xr:uid="{F92EA9B7-C7C9-4C9A-A4FD-B8487A90BED4}"/>
-    <hyperlink ref="A48" r:id="rId45" xr:uid="{C13DA4E5-F17D-4627-BED0-E2B21F8934E2}"/>
-    <hyperlink ref="A49" r:id="rId46" xr:uid="{1D232A60-0C6C-48B8-BEBB-A61A6AF9FCEB}"/>
-    <hyperlink ref="A50" r:id="rId47" xr:uid="{DCDB7095-04BE-4BD2-BC99-48565F349D2A}"/>
-    <hyperlink ref="A51" r:id="rId48" xr:uid="{C5DD8071-48B4-41E4-AF09-DD1AE367A44D}"/>
-    <hyperlink ref="A53" r:id="rId49" xr:uid="{AE106D34-8C29-4325-BC6E-BEAC89364F4E}"/>
-    <hyperlink ref="A54" r:id="rId50" xr:uid="{F00FE7D6-E8F0-4956-BE2E-AAB073CB0517}"/>
-    <hyperlink ref="A55" r:id="rId51" xr:uid="{CF0A0DD4-8BC1-4A6A-B6B0-3B7C518C14ED}"/>
-    <hyperlink ref="A56" r:id="rId52" xr:uid="{2F5F995A-F926-4CB5-8355-491B18C27494}"/>
-    <hyperlink ref="A57" r:id="rId53" xr:uid="{73F84CC2-8D2A-4E9C-AB02-3AA7C7F07922}"/>
-    <hyperlink ref="A58" r:id="rId54" xr:uid="{F43E29F5-95B0-4966-B4D9-C1EFE16C4D82}"/>
-    <hyperlink ref="A59" r:id="rId55" xr:uid="{C1683393-7314-44CA-B73B-480DC1E080C3}"/>
-    <hyperlink ref="A60" r:id="rId56" xr:uid="{3E59702C-75C3-4335-A3D1-5A0791DAE932}"/>
-    <hyperlink ref="A61" r:id="rId57" xr:uid="{7CC73A0D-7DBB-44E0-B4DE-C54504195DED}"/>
-    <hyperlink ref="A62" r:id="rId58" xr:uid="{428F29A8-7582-4BAD-B975-7D9A957AEC04}"/>
-    <hyperlink ref="A63" r:id="rId59" xr:uid="{E68EEBF6-1FFF-4199-9846-BE13E857C8CE}"/>
-    <hyperlink ref="A64" r:id="rId60" xr:uid="{AEDEBAFE-6062-4DE3-8830-3369C3220D07}"/>
-    <hyperlink ref="A65" r:id="rId61" xr:uid="{829BA7E8-BCA6-4276-BD71-259BB9CDD3EC}"/>
-    <hyperlink ref="A66" r:id="rId62" xr:uid="{1DBBA2B7-78C6-4CF1-9126-5B637E9D5A5C}"/>
-    <hyperlink ref="A67" r:id="rId63" xr:uid="{1E803F35-2AC8-4FE2-9DC2-DB3A543191F6}"/>
-    <hyperlink ref="A68" r:id="rId64" xr:uid="{FBD238D7-2736-4768-B9C6-ACAC619C08FD}"/>
-    <hyperlink ref="A30" r:id="rId65" xr:uid="{762F56E1-6435-4764-A220-2B5B1A041A7B}"/>
+    <hyperlink ref="A33" r:id="rId29" xr:uid="{141E1017-43D3-44F2-ADD1-BBD55BCEFC5D}"/>
+    <hyperlink ref="A34" r:id="rId30" xr:uid="{1F2B5872-6965-4156-8012-38B854DEE7CC}"/>
+    <hyperlink ref="A35" r:id="rId31" xr:uid="{080D4ECA-1325-4907-93DB-9267F0549733}"/>
+    <hyperlink ref="A36" r:id="rId32" xr:uid="{CEEDA946-65C6-4F82-9600-73DE62546A2D}"/>
+    <hyperlink ref="A37" r:id="rId33" xr:uid="{A53A7020-5C3F-4513-99B6-7A91AC579569}"/>
+    <hyperlink ref="A38" r:id="rId34" display="https://www.geeksforgeeks.org/construction-of-longest-increasing-subsequence-using-dynamic-programming/" xr:uid="{0AB1C0FB-4BE9-43BF-BB04-8468B0434FBD}"/>
+    <hyperlink ref="A39" r:id="rId35" xr:uid="{AC98C6C3-6844-4F67-BB45-C3120757BFF1}"/>
+    <hyperlink ref="A40" r:id="rId36" xr:uid="{1969731A-51A2-4E1D-ACE3-CD6DB53C39EA}"/>
+    <hyperlink ref="A41" r:id="rId37" xr:uid="{275DD09B-2148-45EB-8F0D-7B874445819B}"/>
+    <hyperlink ref="A42" r:id="rId38" xr:uid="{B60BB0CE-090A-4F3B-AFD9-C637F572E7D5}"/>
+    <hyperlink ref="A43" r:id="rId39" xr:uid="{772EDCDF-FBA6-4E5D-9101-A1A770D018EC}"/>
+    <hyperlink ref="A44" r:id="rId40" xr:uid="{1A89640B-1129-4D2B-8B77-961DD28D8D10}"/>
+    <hyperlink ref="A45" r:id="rId41" xr:uid="{4A86D7B4-2127-4189-AED4-352CF8993EDD}"/>
+    <hyperlink ref="A46" r:id="rId42" xr:uid="{F92EA9B7-C7C9-4C9A-A4FD-B8487A90BED4}"/>
+    <hyperlink ref="A47" r:id="rId43" xr:uid="{C13DA4E5-F17D-4627-BED0-E2B21F8934E2}"/>
+    <hyperlink ref="A48" r:id="rId44" xr:uid="{1D232A60-0C6C-48B8-BEBB-A61A6AF9FCEB}"/>
+    <hyperlink ref="A49" r:id="rId45" xr:uid="{DCDB7095-04BE-4BD2-BC99-48565F349D2A}"/>
+    <hyperlink ref="A50" r:id="rId46" xr:uid="{C5DD8071-48B4-41E4-AF09-DD1AE367A44D}"/>
+    <hyperlink ref="A52" r:id="rId47" xr:uid="{AE106D34-8C29-4325-BC6E-BEAC89364F4E}"/>
+    <hyperlink ref="A53" r:id="rId48" xr:uid="{F00FE7D6-E8F0-4956-BE2E-AAB073CB0517}"/>
+    <hyperlink ref="A54" r:id="rId49" xr:uid="{CF0A0DD4-8BC1-4A6A-B6B0-3B7C518C14ED}"/>
+    <hyperlink ref="A55" r:id="rId50" xr:uid="{2F5F995A-F926-4CB5-8355-491B18C27494}"/>
+    <hyperlink ref="A56" r:id="rId51" xr:uid="{73F84CC2-8D2A-4E9C-AB02-3AA7C7F07922}"/>
+    <hyperlink ref="A57" r:id="rId52" xr:uid="{F43E29F5-95B0-4966-B4D9-C1EFE16C4D82}"/>
+    <hyperlink ref="A58" r:id="rId53" xr:uid="{C1683393-7314-44CA-B73B-480DC1E080C3}"/>
+    <hyperlink ref="A59" r:id="rId54" xr:uid="{3E59702C-75C3-4335-A3D1-5A0791DAE932}"/>
+    <hyperlink ref="A60" r:id="rId55" xr:uid="{7CC73A0D-7DBB-44E0-B4DE-C54504195DED}"/>
+    <hyperlink ref="A61" r:id="rId56" xr:uid="{428F29A8-7582-4BAD-B975-7D9A957AEC04}"/>
+    <hyperlink ref="A62" r:id="rId57" xr:uid="{E68EEBF6-1FFF-4199-9846-BE13E857C8CE}"/>
+    <hyperlink ref="A63" r:id="rId58" xr:uid="{AEDEBAFE-6062-4DE3-8830-3369C3220D07}"/>
+    <hyperlink ref="A64" r:id="rId59" xr:uid="{829BA7E8-BCA6-4276-BD71-259BB9CDD3EC}"/>
+    <hyperlink ref="A65" r:id="rId60" xr:uid="{1DBBA2B7-78C6-4CF1-9126-5B637E9D5A5C}"/>
+    <hyperlink ref="A66" r:id="rId61" xr:uid="{1E803F35-2AC8-4FE2-9DC2-DB3A543191F6}"/>
+    <hyperlink ref="A67" r:id="rId62" xr:uid="{FBD238D7-2736-4768-B9C6-ACAC619C08FD}"/>
+    <hyperlink ref="A30" r:id="rId63" xr:uid="{762F56E1-6435-4764-A220-2B5B1A041A7B}"/>
+    <hyperlink ref="A32" r:id="rId64" xr:uid="{D7BA93FE-2E38-432F-B2D8-B42AC9A3ACA0}"/>
+    <hyperlink ref="A68" r:id="rId65" xr:uid="{95D082A8-4046-488C-AF0B-55B83C32D573}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>

--- a/Week 9/Week 9 -DP.xlsx
+++ b/Week 9/Week 9 -DP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3B0043-785E-4C5F-9C97-8AF73E39D9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159E420B-F765-48BC-A997-6BA2F9BD5C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
   <si>
     <t>Dynamic Programming - Basics</t>
   </si>
@@ -231,18 +231,12 @@
     <t>https://www.geeksforgeeks.org/egg-dropping-puzzle-dp-11/</t>
   </si>
   <si>
-    <t>Kadanes</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/maximum-sum-rectangle-in-a-2d-matrix-dp-27/</t>
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/maximum-size-sub-matrix-with-all-1s-in-a-binary-matrix/</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/matrix-chain-multiplication-dp-8/</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/printing-brackets-matrix-chain-multiplication-problem/</t>
   </si>
   <si>
@@ -286,13 +280,16 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/number-of-ways-to-rearrange-sticks-with-k-sticks-visible/</t>
+  </si>
+  <si>
+    <t>https://www.techiedelight.com/matrix-chain-multiplication/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -337,6 +334,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -430,15 +433,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -658,10 +659,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N1011"/>
+  <dimension ref="A1:N1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -729,7 +730,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -740,7 +741,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -847,7 +848,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -898,7 +899,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -917,7 +918,7 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -928,7 +929,7 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -939,7 +940,7 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -966,7 +967,7 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -1001,15 +1002,18 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="B40" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -1032,7 +1036,7 @@
       <c r="A43" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1040,16 +1044,31 @@
       <c r="A44" s="11" t="s">
         <v>45</v>
       </c>
+      <c r="B44" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>46</v>
       </c>
+      <c r="B45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>47</v>
       </c>
+      <c r="B46" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
@@ -1060,106 +1079,137 @@
       <c r="A48" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+    <row r="51" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11" t="s">
+    <row r="55" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11" t="s">
+      <c r="B55" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
+    <row r="57" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11" t="s">
+      <c r="B57" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+      <c r="B58" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
+      <c r="B59" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="11" t="s">
+    <row r="61" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
+    <row r="62" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11" t="s">
+    <row r="63" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
+    <row r="64" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="A68" s="1"/>
     </row>
     <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
@@ -1168,7 +1218,7 @@
       <c r="A70" s="1"/>
     </row>
     <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
+      <c r="A71" s="2"/>
     </row>
     <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
@@ -1277,6 +1327,9 @@
     </row>
     <row r="107" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
+      <c r="E107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="N107" s="3"/>
     </row>
     <row r="108" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
@@ -6695,12 +6748,6 @@
       <c r="E1010" s="3"/>
       <c r="I1010" s="3"/>
       <c r="N1010" s="3"/>
-    </row>
-    <row r="1011" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1011" s="2"/>
-      <c r="E1011" s="3"/>
-      <c r="I1011" s="3"/>
-      <c r="N1011" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6750,25 +6797,25 @@
     <hyperlink ref="A48" r:id="rId44" xr:uid="{1D232A60-0C6C-48B8-BEBB-A61A6AF9FCEB}"/>
     <hyperlink ref="A49" r:id="rId45" xr:uid="{DCDB7095-04BE-4BD2-BC99-48565F349D2A}"/>
     <hyperlink ref="A50" r:id="rId46" xr:uid="{C5DD8071-48B4-41E4-AF09-DD1AE367A44D}"/>
-    <hyperlink ref="A52" r:id="rId47" xr:uid="{AE106D34-8C29-4325-BC6E-BEAC89364F4E}"/>
-    <hyperlink ref="A53" r:id="rId48" xr:uid="{F00FE7D6-E8F0-4956-BE2E-AAB073CB0517}"/>
-    <hyperlink ref="A54" r:id="rId49" xr:uid="{CF0A0DD4-8BC1-4A6A-B6B0-3B7C518C14ED}"/>
-    <hyperlink ref="A55" r:id="rId50" xr:uid="{2F5F995A-F926-4CB5-8355-491B18C27494}"/>
-    <hyperlink ref="A56" r:id="rId51" xr:uid="{73F84CC2-8D2A-4E9C-AB02-3AA7C7F07922}"/>
-    <hyperlink ref="A57" r:id="rId52" xr:uid="{F43E29F5-95B0-4966-B4D9-C1EFE16C4D82}"/>
-    <hyperlink ref="A58" r:id="rId53" xr:uid="{C1683393-7314-44CA-B73B-480DC1E080C3}"/>
-    <hyperlink ref="A59" r:id="rId54" xr:uid="{3E59702C-75C3-4335-A3D1-5A0791DAE932}"/>
-    <hyperlink ref="A60" r:id="rId55" xr:uid="{7CC73A0D-7DBB-44E0-B4DE-C54504195DED}"/>
-    <hyperlink ref="A61" r:id="rId56" xr:uid="{428F29A8-7582-4BAD-B975-7D9A957AEC04}"/>
-    <hyperlink ref="A62" r:id="rId57" xr:uid="{E68EEBF6-1FFF-4199-9846-BE13E857C8CE}"/>
-    <hyperlink ref="A63" r:id="rId58" xr:uid="{AEDEBAFE-6062-4DE3-8830-3369C3220D07}"/>
-    <hyperlink ref="A64" r:id="rId59" xr:uid="{829BA7E8-BCA6-4276-BD71-259BB9CDD3EC}"/>
-    <hyperlink ref="A65" r:id="rId60" xr:uid="{1DBBA2B7-78C6-4CF1-9126-5B637E9D5A5C}"/>
-    <hyperlink ref="A66" r:id="rId61" xr:uid="{1E803F35-2AC8-4FE2-9DC2-DB3A543191F6}"/>
-    <hyperlink ref="A67" r:id="rId62" xr:uid="{FBD238D7-2736-4768-B9C6-ACAC619C08FD}"/>
-    <hyperlink ref="A30" r:id="rId63" xr:uid="{762F56E1-6435-4764-A220-2B5B1A041A7B}"/>
-    <hyperlink ref="A32" r:id="rId64" xr:uid="{D7BA93FE-2E38-432F-B2D8-B42AC9A3ACA0}"/>
-    <hyperlink ref="A68" r:id="rId65" xr:uid="{95D082A8-4046-488C-AF0B-55B83C32D573}"/>
+    <hyperlink ref="A51" r:id="rId47" xr:uid="{AE106D34-8C29-4325-BC6E-BEAC89364F4E}"/>
+    <hyperlink ref="A52" r:id="rId48" xr:uid="{F00FE7D6-E8F0-4956-BE2E-AAB073CB0517}"/>
+    <hyperlink ref="A54" r:id="rId49" xr:uid="{2F5F995A-F926-4CB5-8355-491B18C27494}"/>
+    <hyperlink ref="A55" r:id="rId50" xr:uid="{73F84CC2-8D2A-4E9C-AB02-3AA7C7F07922}"/>
+    <hyperlink ref="A56" r:id="rId51" xr:uid="{F43E29F5-95B0-4966-B4D9-C1EFE16C4D82}"/>
+    <hyperlink ref="A57" r:id="rId52" xr:uid="{C1683393-7314-44CA-B73B-480DC1E080C3}"/>
+    <hyperlink ref="A58" r:id="rId53" xr:uid="{3E59702C-75C3-4335-A3D1-5A0791DAE932}"/>
+    <hyperlink ref="A59" r:id="rId54" xr:uid="{7CC73A0D-7DBB-44E0-B4DE-C54504195DED}"/>
+    <hyperlink ref="A60" r:id="rId55" xr:uid="{428F29A8-7582-4BAD-B975-7D9A957AEC04}"/>
+    <hyperlink ref="A61" r:id="rId56" xr:uid="{E68EEBF6-1FFF-4199-9846-BE13E857C8CE}"/>
+    <hyperlink ref="A62" r:id="rId57" xr:uid="{AEDEBAFE-6062-4DE3-8830-3369C3220D07}"/>
+    <hyperlink ref="A63" r:id="rId58" xr:uid="{829BA7E8-BCA6-4276-BD71-259BB9CDD3EC}"/>
+    <hyperlink ref="A64" r:id="rId59" xr:uid="{1DBBA2B7-78C6-4CF1-9126-5B637E9D5A5C}"/>
+    <hyperlink ref="A65" r:id="rId60" xr:uid="{1E803F35-2AC8-4FE2-9DC2-DB3A543191F6}"/>
+    <hyperlink ref="A66" r:id="rId61" xr:uid="{FBD238D7-2736-4768-B9C6-ACAC619C08FD}"/>
+    <hyperlink ref="A30" r:id="rId62" xr:uid="{762F56E1-6435-4764-A220-2B5B1A041A7B}"/>
+    <hyperlink ref="A32" r:id="rId63" xr:uid="{D7BA93FE-2E38-432F-B2D8-B42AC9A3ACA0}"/>
+    <hyperlink ref="A67" r:id="rId64" xr:uid="{95D082A8-4046-488C-AF0B-55B83C32D573}"/>
+    <hyperlink ref="A53" r:id="rId65" xr:uid="{8518E670-924E-44D0-AAAC-E67B65704542}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>

--- a/Week 9/Week 9 -DP.xlsx
+++ b/Week 9/Week 9 -DP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159E420B-F765-48BC-A997-6BA2F9BD5C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF81757-5A21-4C8F-A38C-CE388BE08C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
   <si>
     <t>Dynamic Programming - Basics</t>
   </si>
@@ -661,8 +661,8 @@
   </sheetPr>
   <dimension ref="A1:N1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="103" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1097,6 +1097,9 @@
     <row r="50" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>51</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">

--- a/Week 9/Week 9 -DP.xlsx
+++ b/Week 9/Week 9 -DP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF81757-5A21-4C8F-A38C-CE388BE08C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CD6CB9-0FF9-4BD4-B166-25C65F9E939F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
   <si>
     <t>Dynamic Programming - Basics</t>
   </si>
@@ -247,12 +247,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/burst-balloons/</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/min-cost-path-dp-6/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/matrix-block-sum/</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/minimum-falling-path-sum/</t>
@@ -659,10 +653,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N1010"/>
+  <dimension ref="A1:N1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="103" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="103" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -730,7 +724,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -741,7 +735,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -848,7 +842,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -899,7 +893,7 @@
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -918,7 +912,7 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -929,7 +923,7 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -940,7 +934,7 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -967,7 +961,7 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -1002,7 +996,7 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -1013,7 +1007,7 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -1056,7 +1050,7 @@
         <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -1067,7 +1061,7 @@
         <v>23</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -1083,7 +1077,7 @@
         <v>23</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -1120,13 +1114,13 @@
     </row>
     <row r="53" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -1185,69 +1179,74 @@
       <c r="A62" s="11" t="s">
         <v>62</v>
       </c>
+      <c r="B62" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="B63" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
     </row>
-    <row r="72" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
     </row>
-    <row r="73" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
     </row>
-    <row r="74" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
     </row>
-    <row r="75" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1" ht="15" x14ac:dyDescent="0.25">
@@ -1324,9 +1323,15 @@
     </row>
     <row r="105" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
+      <c r="E105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="N105" s="3"/>
     </row>
     <row r="106" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
+      <c r="E106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="N106" s="3"/>
     </row>
     <row r="107" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
@@ -6739,18 +6744,6 @@
       <c r="E1008" s="3"/>
       <c r="I1008" s="3"/>
       <c r="N1008" s="3"/>
-    </row>
-    <row r="1009" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1009" s="2"/>
-      <c r="E1009" s="3"/>
-      <c r="I1009" s="3"/>
-      <c r="N1009" s="3"/>
-    </row>
-    <row r="1010" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1010" s="2"/>
-      <c r="E1010" s="3"/>
-      <c r="I1010" s="3"/>
-      <c r="N1010" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6806,22 +6799,20 @@
     <hyperlink ref="A55" r:id="rId50" xr:uid="{73F84CC2-8D2A-4E9C-AB02-3AA7C7F07922}"/>
     <hyperlink ref="A56" r:id="rId51" xr:uid="{F43E29F5-95B0-4966-B4D9-C1EFE16C4D82}"/>
     <hyperlink ref="A57" r:id="rId52" xr:uid="{C1683393-7314-44CA-B73B-480DC1E080C3}"/>
-    <hyperlink ref="A58" r:id="rId53" xr:uid="{3E59702C-75C3-4335-A3D1-5A0791DAE932}"/>
-    <hyperlink ref="A59" r:id="rId54" xr:uid="{7CC73A0D-7DBB-44E0-B4DE-C54504195DED}"/>
-    <hyperlink ref="A60" r:id="rId55" xr:uid="{428F29A8-7582-4BAD-B975-7D9A957AEC04}"/>
-    <hyperlink ref="A61" r:id="rId56" xr:uid="{E68EEBF6-1FFF-4199-9846-BE13E857C8CE}"/>
-    <hyperlink ref="A62" r:id="rId57" xr:uid="{AEDEBAFE-6062-4DE3-8830-3369C3220D07}"/>
-    <hyperlink ref="A63" r:id="rId58" xr:uid="{829BA7E8-BCA6-4276-BD71-259BB9CDD3EC}"/>
-    <hyperlink ref="A64" r:id="rId59" xr:uid="{1DBBA2B7-78C6-4CF1-9126-5B637E9D5A5C}"/>
-    <hyperlink ref="A65" r:id="rId60" xr:uid="{1E803F35-2AC8-4FE2-9DC2-DB3A543191F6}"/>
-    <hyperlink ref="A66" r:id="rId61" xr:uid="{FBD238D7-2736-4768-B9C6-ACAC619C08FD}"/>
-    <hyperlink ref="A30" r:id="rId62" xr:uid="{762F56E1-6435-4764-A220-2B5B1A041A7B}"/>
-    <hyperlink ref="A32" r:id="rId63" xr:uid="{D7BA93FE-2E38-432F-B2D8-B42AC9A3ACA0}"/>
-    <hyperlink ref="A67" r:id="rId64" xr:uid="{95D082A8-4046-488C-AF0B-55B83C32D573}"/>
-    <hyperlink ref="A53" r:id="rId65" xr:uid="{8518E670-924E-44D0-AAAC-E67B65704542}"/>
+    <hyperlink ref="A58" r:id="rId53" xr:uid="{428F29A8-7582-4BAD-B975-7D9A957AEC04}"/>
+    <hyperlink ref="A59" r:id="rId54" xr:uid="{E68EEBF6-1FFF-4199-9846-BE13E857C8CE}"/>
+    <hyperlink ref="A60" r:id="rId55" xr:uid="{AEDEBAFE-6062-4DE3-8830-3369C3220D07}"/>
+    <hyperlink ref="A61" r:id="rId56" xr:uid="{829BA7E8-BCA6-4276-BD71-259BB9CDD3EC}"/>
+    <hyperlink ref="A62" r:id="rId57" xr:uid="{1DBBA2B7-78C6-4CF1-9126-5B637E9D5A5C}"/>
+    <hyperlink ref="A63" r:id="rId58" xr:uid="{1E803F35-2AC8-4FE2-9DC2-DB3A543191F6}"/>
+    <hyperlink ref="A64" r:id="rId59" xr:uid="{FBD238D7-2736-4768-B9C6-ACAC619C08FD}"/>
+    <hyperlink ref="A30" r:id="rId60" xr:uid="{762F56E1-6435-4764-A220-2B5B1A041A7B}"/>
+    <hyperlink ref="A32" r:id="rId61" xr:uid="{D7BA93FE-2E38-432F-B2D8-B42AC9A3ACA0}"/>
+    <hyperlink ref="A65" r:id="rId62" xr:uid="{95D082A8-4046-488C-AF0B-55B83C32D573}"/>
+    <hyperlink ref="A53" r:id="rId63" xr:uid="{8518E670-924E-44D0-AAAC-E67B65704542}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
-  <legacyDrawing r:id="rId67"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
+  <legacyDrawing r:id="rId65"/>
 </worksheet>
 </file>
--- a/Week 9/Week 9 -DP.xlsx
+++ b/Week 9/Week 9 -DP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSA\Week 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CD6CB9-0FF9-4BD4-B166-25C65F9E939F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E960DA01-9BF5-4294-9125-F1B2AC17EB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="69">
   <si>
     <t>Dynamic Programming - Basics</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>https://www.techiedelight.com/matrix-chain-multiplication/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv/</t>
   </si>
 </sst>
 </file>
@@ -655,8 +658,8 @@
   </sheetPr>
   <dimension ref="A1:N1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="103" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="103" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1208,9 @@
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+      <c r="A66" s="13" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
@@ -6810,9 +6815,10 @@
     <hyperlink ref="A32" r:id="rId61" xr:uid="{D7BA93FE-2E38-432F-B2D8-B42AC9A3ACA0}"/>
     <hyperlink ref="A65" r:id="rId62" xr:uid="{95D082A8-4046-488C-AF0B-55B83C32D573}"/>
     <hyperlink ref="A53" r:id="rId63" xr:uid="{8518E670-924E-44D0-AAAC-E67B65704542}"/>
+    <hyperlink ref="A66" r:id="rId64" xr:uid="{4349EFF0-6C6E-4C82-B16B-9AF10A233A1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
-  <legacyDrawing r:id="rId65"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
+  <legacyDrawing r:id="rId66"/>
 </worksheet>
 </file>